--- a/QuantLibXL/Data2/XLS/CCS/USD_BasisCurvesContribution.xlsx
+++ b/QuantLibXL/Data2/XLS/CCS/USD_BasisCurvesContribution.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="70">
   <si>
     <t>Rate</t>
   </si>
@@ -335,6 +335,15 @@
   </si>
   <si>
     <t>InterestRateTrigger</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>3D</t>
   </si>
 </sst>
 </file>
@@ -777,7 +786,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>196</v>
+            <v>14</v>
           </cell>
         </row>
       </sheetData>
@@ -1194,7 +1203,7 @@
       </c>
       <c r="C3" s="52">
         <f>[1]!TriggerCounter</f>
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="E3" s="45" t="s">
         <v>11</v>
@@ -1213,15 +1222,15 @@
       </c>
       <c r="I3" s="40">
         <f t="array" ref="I3:I23">CHF!H2:H22*100</f>
-        <v>0</v>
+        <v>-0.77500000000307878</v>
       </c>
       <c r="J3" s="40">
         <f t="array" ref="J3:J23">JPY!H2:H22*100</f>
-        <v>2.0000000000131024E-2</v>
+        <v>4.9999999996330757E-2</v>
       </c>
       <c r="K3" s="40">
         <f t="array" ref="K3:K23">AUD!H2:H22*100</f>
-        <v>1.9749999999989498</v>
+        <v>2.1700000000022257</v>
       </c>
       <c r="L3" s="40">
         <f t="array" ref="L3:L23">HKD!H2:H22*100</f>
@@ -1229,7 +1238,7 @@
       </c>
       <c r="M3" s="40">
         <f t="array" ref="M3:M23">SEK!H2:H22*100</f>
-        <v>-0.35999999999836163</v>
+        <v>-0.29999999999796856</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -1247,25 +1256,25 @@
         <v>0.2299999999991087</v>
       </c>
       <c r="G4" s="41">
-        <v>-0.15000000000098268</v>
+        <v>-0.15000000000018332</v>
       </c>
       <c r="H4" s="41">
         <v>0.5099999999997884</v>
       </c>
       <c r="I4" s="41">
-        <v>-0.7749999999998175</v>
+        <v>-0.77499999999988134</v>
       </c>
       <c r="J4" s="41">
-        <v>1.2499995746484416E-2</v>
+        <v>-9.5123908749883412E-10</v>
       </c>
       <c r="K4" s="41">
-        <v>2.1500000003857878</v>
+        <v>2.170000000000627</v>
       </c>
       <c r="L4" s="41">
-        <v>7.6041666667164831E-2</v>
+        <v>7.6041666665949137E-2</v>
       </c>
       <c r="M4" s="41">
-        <v>-0.34999999999829612</v>
+        <v>-0.32500000095376791</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -1276,25 +1285,25 @@
         <v>0.24000000000024002</v>
       </c>
       <c r="G5" s="42">
-        <v>-0.15000000205134256</v>
+        <v>-0.1500000008562985</v>
       </c>
       <c r="H5" s="42">
-        <v>0.52000000000296254</v>
+        <v>0.52000000000026103</v>
       </c>
       <c r="I5" s="42">
-        <v>-0.77500000178992723</v>
+        <v>-0.82500000113050476</v>
       </c>
       <c r="J5" s="42">
-        <v>0.28747822448149662</v>
+        <v>4.8034376161965042E-2</v>
       </c>
       <c r="K5" s="42">
-        <v>2.0499999996737017</v>
+        <v>2.0749999999996049</v>
       </c>
       <c r="L5" s="42">
-        <v>0.26361111111283808</v>
+        <v>0.26361111115336128</v>
       </c>
       <c r="M5" s="42">
-        <v>-0.22000000000144126</v>
+        <v>-0.29999999999930083</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -1302,28 +1311,28 @@
         <v>55</v>
       </c>
       <c r="F6" s="41">
-        <v>0.33442162337988485</v>
-      </c>
-      <c r="G6" s="41">
-        <v>-0.29995263859516896</v>
+        <v>0.33083530259896726</v>
+      </c>
+      <c r="G6" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H6" s="41">
-        <v>0.62410741685736681</v>
+        <v>0.62331691192296645</v>
       </c>
       <c r="I6" s="41">
-        <v>-0.87655487157938561</v>
+        <v>-0.85270897151439629</v>
       </c>
       <c r="J6" s="41">
-        <v>0.33121442963844416</v>
+        <v>0.32820092913902038</v>
       </c>
       <c r="K6" s="41">
-        <v>2.2758583240470389</v>
+        <v>2.316520194856889</v>
       </c>
       <c r="L6" s="41">
-        <v>0.40632711443206693</v>
+        <v>0.43630892491797191</v>
       </c>
       <c r="M6" s="41">
-        <v>-0.28587209120540485</v>
+        <v>-0.2936606594677395</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -1331,28 +1340,28 @@
         <v>19</v>
       </c>
       <c r="F7" s="41">
-        <v>0.33884072332985532</v>
-      </c>
-      <c r="G7" s="41">
-        <v>-0.31379380192492995</v>
+        <v>0.33999158516197425</v>
+      </c>
+      <c r="G7" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H7" s="41">
-        <v>0.62778395056663405</v>
+        <v>0.63013909650691924</v>
       </c>
       <c r="I7" s="41">
-        <v>-0.85681983135804263</v>
+        <v>-0.83812780367439488</v>
       </c>
       <c r="J7" s="41">
-        <v>0.33582448568734791</v>
+        <v>0.33720830809601055</v>
       </c>
       <c r="K7" s="41">
-        <v>2.2762481500333869</v>
+        <v>2.3037264942242786</v>
       </c>
       <c r="L7" s="41">
-        <v>0.41081207995440661</v>
+        <v>0.42878497116802639</v>
       </c>
       <c r="M7" s="41">
-        <v>-0.29599973830464676</v>
+        <v>-0.28609265774814929</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -1360,28 +1369,28 @@
         <v>21</v>
       </c>
       <c r="F8" s="41">
-        <v>0.34316011935014196</v>
-      </c>
-      <c r="G8" s="41">
-        <v>-0.318469773712796</v>
+        <v>0.34516224344103918</v>
+      </c>
+      <c r="G8" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H8" s="41">
-        <v>0.630800444549519</v>
+        <v>0.63180993215697767</v>
       </c>
       <c r="I8" s="41">
-        <v>-0.82882030377520077</v>
+        <v>-0.81468653522006762</v>
       </c>
       <c r="J8" s="41">
-        <v>0.34013659452839357</v>
+        <v>0.34235752705884842</v>
       </c>
       <c r="K8" s="41">
-        <v>2.2895902367286527</v>
+        <v>2.3108720225201953</v>
       </c>
       <c r="L8" s="41">
-        <v>0.40559263026118147</v>
+        <v>0.42019721150875539</v>
       </c>
       <c r="M8" s="41">
-        <v>-0.28853442578448607</v>
+        <v>-0.28405725992414993</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -1389,28 +1398,28 @@
         <v>24</v>
       </c>
       <c r="F9" s="41">
-        <v>0.34513681937106244</v>
-      </c>
-      <c r="G9" s="41">
-        <v>-0.32314354655161465</v>
+        <v>0.34430253005111117</v>
+      </c>
+      <c r="G9" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H9" s="41">
-        <v>0.62908339864723339</v>
+        <v>0.62726259911895277</v>
       </c>
       <c r="I9" s="41">
-        <v>-0.85913608839353861</v>
+        <v>-0.83187894844047228</v>
       </c>
       <c r="J9" s="41">
-        <v>0.34209061447035016</v>
+        <v>0.34142351508481189</v>
       </c>
       <c r="K9" s="41">
-        <v>2.2847970219120635</v>
+        <v>2.3146145655488226</v>
       </c>
       <c r="L9" s="41">
-        <v>0.40310041408089536</v>
+        <v>0.41743754911404896</v>
       </c>
       <c r="M9" s="41">
-        <v>-0.30893657262542179</v>
+        <v>-0.30668264747271068</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
@@ -1418,28 +1427,28 @@
         <v>27</v>
       </c>
       <c r="F10" s="41">
-        <v>0.35434744512374111</v>
-      </c>
-      <c r="G10" s="41">
-        <v>-0.33665654220334823</v>
+        <v>0.35308796851853885</v>
+      </c>
+      <c r="G10" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H10" s="41">
-        <v>0.63402566350231626</v>
+        <v>0.63274762645676974</v>
       </c>
       <c r="I10" s="41">
-        <v>-0.99789199390685634</v>
+        <v>-0.98109991950964015</v>
       </c>
       <c r="J10" s="41">
-        <v>0.3499686546901406</v>
+        <v>0.34883289827619141</v>
       </c>
       <c r="K10" s="41">
-        <v>2.3067473163038557</v>
+        <v>2.3177246141809977</v>
       </c>
       <c r="L10" s="41">
-        <v>0.40105846262318962</v>
+        <v>0.40357485643494245</v>
       </c>
       <c r="M10" s="41">
-        <v>-0.35717301409209046</v>
+        <v>-0.35237148971592913</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -1447,28 +1456,28 @@
         <v>30</v>
       </c>
       <c r="F11" s="41">
-        <v>0.3672067923584606</v>
-      </c>
-      <c r="G11" s="41">
-        <v>-0.34431611775425475</v>
+        <v>0.36425519753234492</v>
+      </c>
+      <c r="G11" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H11" s="41">
-        <v>0.63793189878333489</v>
+        <v>0.64080272589013254</v>
       </c>
       <c r="I11" s="41">
-        <v>-1.0472980269357504</v>
+        <v>-1.0348606780872143</v>
       </c>
       <c r="J11" s="41">
-        <v>0.36288004690662617</v>
+        <v>0.35994682671997258</v>
       </c>
       <c r="K11" s="41">
-        <v>2.3235085794960608</v>
+        <v>2.3221604341188145</v>
       </c>
       <c r="L11" s="41">
-        <v>0.39919809502793274</v>
+        <v>0.40004311005903637</v>
       </c>
       <c r="M11" s="41">
-        <v>-0.38269406188307104</v>
+        <v>-0.37311635647086916</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -1476,28 +1485,28 @@
         <v>32</v>
       </c>
       <c r="F12" s="41">
-        <v>0.38093113885088314</v>
-      </c>
-      <c r="G12" s="41">
-        <v>-0.34897230987236938</v>
+        <v>0.37687566566928865</v>
+      </c>
+      <c r="G12" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H12" s="41">
-        <v>0.64619916513522757</v>
+        <v>0.64461052862862822</v>
       </c>
       <c r="I12" s="41">
-        <v>-1.0676582039251885</v>
+        <v>-1.0568293407172966</v>
       </c>
       <c r="J12" s="41">
-        <v>0.37651402188307515</v>
+        <v>0.37245632489148051</v>
       </c>
       <c r="K12" s="41">
-        <v>2.3191492004646439</v>
+        <v>2.3248857354831074</v>
       </c>
       <c r="L12" s="41">
-        <v>0.40356853101036233</v>
+        <v>0.40504000972298804</v>
       </c>
       <c r="M12" s="41">
-        <v>-0.38821157021378028</v>
+        <v>-0.38236665854948276</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -1505,28 +1514,28 @@
         <v>33</v>
       </c>
       <c r="F13" s="41">
-        <v>0.39718125385344949</v>
-      </c>
-      <c r="G13" s="41">
-        <v>-0.35211030060497583</v>
+        <v>0.39290706705523182</v>
+      </c>
+      <c r="G13" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H13" s="41">
-        <v>0.65543664720043138</v>
+        <v>0.65416015896083057</v>
       </c>
       <c r="I13" s="41">
-        <v>-1.0891233729778826</v>
+        <v>-1.0802945002469562</v>
       </c>
       <c r="J13" s="41">
-        <v>0.39214914964326364</v>
+        <v>0.38789327806236262</v>
       </c>
       <c r="K13" s="41">
-        <v>2.3318887194267481</v>
+        <v>2.3312554846415647</v>
       </c>
       <c r="L13" s="41">
-        <v>0.41348565110353885</v>
+        <v>0.41685520735595266</v>
       </c>
       <c r="M13" s="41">
-        <v>-0.38232819029287662</v>
+        <v>-0.37636749335976644</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
@@ -1534,28 +1543,28 @@
         <v>34</v>
       </c>
       <c r="F14" s="41">
-        <v>0.42008544338701131</v>
-      </c>
-      <c r="G14" s="41">
-        <v>-0.35863250395944707</v>
+        <v>0.41647518340596723</v>
+      </c>
+      <c r="G14" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H14" s="41">
-        <v>0.66517819292660973</v>
+        <v>0.66995552058686891</v>
       </c>
       <c r="I14" s="41">
-        <v>-1.1033876668357017</v>
+        <v>-1.0915575460664038</v>
       </c>
       <c r="J14" s="41">
-        <v>0.41482653006610903</v>
+        <v>0.41126500702806529</v>
       </c>
       <c r="K14" s="41">
-        <v>2.3333850800358573</v>
+        <v>2.3348525352951328</v>
       </c>
       <c r="L14" s="41">
-        <v>0.43229578707508221</v>
+        <v>0.43628439474740677</v>
       </c>
       <c r="M14" s="41">
-        <v>-0.38371531359418737</v>
+        <v>-0.37359382893056053</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
@@ -1563,28 +1572,28 @@
         <v>35</v>
       </c>
       <c r="F15" s="41">
-        <v>0.44698920993876035</v>
-      </c>
-      <c r="G15" s="41">
-        <v>-0.36933596715501193</v>
+        <v>0.44252898395236162</v>
+      </c>
+      <c r="G15" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H15" s="41">
-        <v>0.68340549804234563</v>
+        <v>0.68151678699600116</v>
       </c>
       <c r="I15" s="41">
-        <v>-1.0959300239885097</v>
+        <v>-1.0974583590336504</v>
       </c>
       <c r="J15" s="41">
-        <v>0.44150962113986836</v>
+        <v>0.43706198891098802</v>
       </c>
       <c r="K15" s="41">
-        <v>2.3427315057927656</v>
+        <v>2.3347027348513381</v>
       </c>
       <c r="L15" s="41">
-        <v>0.45524488119282569</v>
+        <v>0.46073835929437268</v>
       </c>
       <c r="M15" s="41">
-        <v>-0.36661945667757861</v>
+        <v>-0.35684525955711111</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
@@ -1592,28 +1601,28 @@
         <v>36</v>
       </c>
       <c r="F16" s="41">
-        <v>0.47111776397717631</v>
-      </c>
-      <c r="G16" s="41">
-        <v>-0.37157132447645458</v>
+        <v>0.46992714969716065</v>
+      </c>
+      <c r="G16" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H16" s="41">
-        <v>0.69884365564534479</v>
+        <v>0.70031942849357331</v>
       </c>
       <c r="I16" s="41">
-        <v>-1.1045736594466959</v>
+        <v>-1.0939335596734263</v>
       </c>
       <c r="J16" s="41">
-        <v>0.46465279157753347</v>
+        <v>0.46348437435395567</v>
       </c>
       <c r="K16" s="41">
-        <v>2.3453286419637656</v>
+        <v>2.3482447917577969</v>
       </c>
       <c r="L16" s="41">
-        <v>0.47976840335114107</v>
+        <v>0.48687572416779507</v>
       </c>
       <c r="M16" s="41">
-        <v>-0.36579115860121303</v>
+        <v>-0.3603222726003214</v>
       </c>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.2">
@@ -1621,28 +1630,28 @@
         <v>37</v>
       </c>
       <c r="F17" s="41">
-        <v>0.50172497265486293</v>
-      </c>
-      <c r="G17" s="41">
-        <v>-0.37968702494483653</v>
+        <v>0.50282659311322486</v>
+      </c>
+      <c r="G17" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H17" s="41">
-        <v>0.71243644752181623</v>
+        <v>0.71898741163684521</v>
       </c>
       <c r="I17" s="41">
-        <v>-1.0897903872330492</v>
+        <v>-1.0892222568627323</v>
       </c>
       <c r="J17" s="41">
-        <v>0.49496050554834792</v>
+        <v>0.49612313271228126</v>
       </c>
       <c r="K17" s="41">
-        <v>2.3529345528365155</v>
+        <v>2.3479853612029822</v>
       </c>
       <c r="L17" s="41">
-        <v>0.50869337505284717</v>
+        <v>0.51665887002367017</v>
       </c>
       <c r="M17" s="41">
-        <v>-0.37117198371293825</v>
+        <v>-0.3409064532807663</v>
       </c>
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.2">
@@ -1650,28 +1659,28 @@
         <v>38</v>
       </c>
       <c r="F18" s="41">
-        <v>0.53247402363151308</v>
-      </c>
-      <c r="G18" s="41">
-        <v>-0.38843894661376677</v>
+        <v>0.53229136138026634</v>
+      </c>
+      <c r="G18" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H18" s="41">
-        <v>0.72979186700707055</v>
+        <v>0.74059840923412201</v>
       </c>
       <c r="I18" s="41">
-        <v>-1.0959597981389675</v>
+        <v>-1.0888782483318395</v>
       </c>
       <c r="J18" s="41">
-        <v>0.52448929171249226</v>
+        <v>0.52442102909043575</v>
       </c>
       <c r="K18" s="41">
-        <v>2.3609586770453515</v>
+        <v>2.3544806287259976</v>
       </c>
       <c r="L18" s="41">
-        <v>0.54084088662738472</v>
+        <v>0.54829848660049196</v>
       </c>
       <c r="M18" s="41">
-        <v>-0.3552233515185298</v>
+        <v>-0.3385032353744033</v>
       </c>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.2">
@@ -1679,28 +1688,28 @@
         <v>39</v>
       </c>
       <c r="F19" s="41">
-        <v>0.56131698821027765</v>
-      </c>
-      <c r="G19" s="41">
-        <v>-0.39619009539977001</v>
+        <v>0.55924836134887568</v>
+      </c>
+      <c r="G19" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H19" s="41">
-        <v>0.7472015957644258</v>
+        <v>0.75585436985350585</v>
       </c>
       <c r="I19" s="41">
-        <v>-1.0867249662670542</v>
+        <v>-1.0949582253848884</v>
       </c>
       <c r="J19" s="41">
-        <v>0.55393359240923923</v>
+        <v>0.55187217518137022</v>
       </c>
       <c r="K19" s="41">
-        <v>2.3691138425782632</v>
+        <v>2.3614195049127065</v>
       </c>
       <c r="L19" s="41">
-        <v>0.56973605078219847</v>
+        <v>0.57608650059740851</v>
       </c>
       <c r="M19" s="41">
-        <v>-0.34976752335697764</v>
+        <v>-0.33402874024033935</v>
       </c>
     </row>
     <row r="20" spans="5:13" x14ac:dyDescent="0.2">
@@ -1708,28 +1717,28 @@
         <v>40</v>
       </c>
       <c r="F20" s="41">
-        <v>0.59420082207351865</v>
-      </c>
-      <c r="G20" s="41">
-        <v>-0.40327680256265641</v>
+        <v>0.5940256038639159</v>
+      </c>
+      <c r="G20" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H20" s="41">
-        <v>0.76879378006930399</v>
+        <v>0.78024310759749449</v>
       </c>
       <c r="I20" s="41">
-        <v>-1.0760480158329397</v>
+        <v>-1.0760133722616991</v>
       </c>
       <c r="J20" s="41">
-        <v>0.58645892755552886</v>
+        <v>0.58631654818172985</v>
       </c>
       <c r="K20" s="41">
-        <v>2.3822518968613742</v>
+        <v>2.3835439287395377</v>
       </c>
       <c r="L20" s="41">
-        <v>0.60051246905221256</v>
+        <v>0.60551079439219657</v>
       </c>
       <c r="M20" s="41">
-        <v>-0.3420346715783687</v>
+        <v>-0.31485234356177583</v>
       </c>
     </row>
     <row r="21" spans="5:13" x14ac:dyDescent="0.2">
@@ -1737,28 +1746,28 @@
         <v>41</v>
       </c>
       <c r="F21" s="41">
-        <v>0.69404976041646327</v>
-      </c>
-      <c r="G21" s="41">
-        <v>-0.42257505012077901</v>
+        <v>0.68997609630988099</v>
+      </c>
+      <c r="G21" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H21" s="41">
-        <v>0.83273147282877291</v>
+        <v>0.84862703786293903</v>
       </c>
       <c r="I21" s="41">
-        <v>-1.0552401761534187</v>
+        <v>-1.0668008928820909</v>
       </c>
       <c r="J21" s="41">
-        <v>0.68529323366448758</v>
+        <v>0.68119819727087338</v>
       </c>
       <c r="K21" s="41">
-        <v>2.410219182362733</v>
+        <v>2.3959769655400911</v>
       </c>
       <c r="L21" s="41">
-        <v>0.69331921685149178</v>
+        <v>0.69437493747554146</v>
       </c>
       <c r="M21" s="41">
-        <v>-0.3008460553043501</v>
+        <v>-0.30236100744792599</v>
       </c>
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.2">
@@ -1766,28 +1775,28 @@
         <v>42</v>
       </c>
       <c r="F22" s="41">
-        <v>0.79855958411430095</v>
-      </c>
-      <c r="G22" s="41">
-        <v>-0.43701023742960105</v>
+        <v>0.79271880989670185</v>
+      </c>
+      <c r="G22" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H22" s="41">
-        <v>0.90447472577451205</v>
+        <v>0.92315335128188514</v>
       </c>
       <c r="I22" s="41">
-        <v>-1.0226550164371329</v>
+        <v>-1.0300659871625453</v>
       </c>
       <c r="J22" s="41">
-        <v>0.78855972830466325</v>
+        <v>0.78276644083364255</v>
       </c>
       <c r="K22" s="41">
-        <v>2.4612386319445454</v>
+        <v>2.4549364419621909</v>
       </c>
       <c r="L22" s="41">
-        <v>0.79238404835907517</v>
+        <v>0.79078154478795948</v>
       </c>
       <c r="M22" s="41">
-        <v>-0.24598657271286259</v>
+        <v>-0.25836726563481455</v>
       </c>
     </row>
     <row r="23" spans="5:13" x14ac:dyDescent="0.2">
@@ -1795,28 +1804,28 @@
         <v>43</v>
       </c>
       <c r="F23" s="42">
-        <v>0.98858553987349296</v>
-      </c>
-      <c r="G23" s="42">
-        <v>-0.43484886212531237</v>
+        <v>0.98989226892360216</v>
+      </c>
+      <c r="G23" s="42" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H23" s="42">
-        <v>1.0297447712137882</v>
+        <v>1.0641756783834575</v>
       </c>
       <c r="I23" s="42">
-        <v>-0.96799306897524529</v>
+        <v>-1.0021861176509599</v>
       </c>
       <c r="J23" s="42">
-        <v>0.97617949300685802</v>
+        <v>0.97753470346013294</v>
       </c>
       <c r="K23" s="42">
-        <v>2.5143422916652174</v>
+        <v>2.5152227752220888</v>
       </c>
       <c r="L23" s="42">
-        <v>0.97275223426413737</v>
+        <v>0.98393356793850439</v>
       </c>
       <c r="M23" s="42">
-        <v>-0.14719971030296</v>
+        <v>-0.14747391777857485</v>
       </c>
     </row>
   </sheetData>
@@ -1871,14 +1880,14 @@
         <v>2</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F2" s="22">
         <f t="array" ref="F2:F4">EvaluationDate</f>
         <v>42145</v>
       </c>
       <c r="G2" s="25">
-        <f>_xll.qlCalendarAdvance(JoinCalendar,F2,"1D","f",FALSE)</f>
+        <f>_xll.qlCalendarAdvance(JoinCalendar,F2,E2,"f",FALSE)</f>
         <v>42146</v>
       </c>
       <c r="H2" s="31">
@@ -1901,13 +1910,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="F3" s="23">
         <v>42145</v>
       </c>
       <c r="G3" s="26">
-        <f>_xll.qlCalendarAdvance(JoinCalendar,F3,"2D","f",FALSE)</f>
+        <f>_xll.qlCalendarAdvance(JoinCalendar,F3,E3,"f",FALSE)</f>
         <v>42150</v>
       </c>
       <c r="H3" s="33">
@@ -1930,13 +1939,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F4" s="24">
         <v>42145</v>
       </c>
       <c r="G4" s="21">
-        <f>_xll.qlCalendarAdvance(JoinCalendar,F4,"3D","f",FALSE)</f>
+        <f>_xll.qlCalendarAdvance(JoinCalendar,F4,E4,"f",FALSE)</f>
         <v>42151</v>
       </c>
       <c r="H4" s="32">
@@ -1972,7 +1981,7 @@
       </c>
       <c r="H5" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F5,G5,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>3.3442162337988485E-3</v>
+        <v>3.3083530259896726E-3</v>
       </c>
       <c r="I5" s="35"/>
       <c r="J5" s="9"/>
@@ -2001,7 +2010,7 @@
       </c>
       <c r="H6" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F6,G6,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>3.3884072332985532E-3</v>
+        <v>3.3999158516197425E-3</v>
       </c>
       <c r="I6" s="35"/>
       <c r="J6" s="9"/>
@@ -2030,7 +2039,7 @@
       </c>
       <c r="H7" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F7,G7,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>3.4316011935014196E-3</v>
+        <v>3.4516224344103919E-3</v>
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="9"/>
@@ -2060,7 +2069,7 @@
       </c>
       <c r="H8" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F8,G8,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>3.4513681937106242E-3</v>
+        <v>3.4430253005111118E-3</v>
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="9"/>
@@ -2089,7 +2098,7 @@
       </c>
       <c r="H9" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F9,G9,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>3.5434744512374112E-3</v>
+        <v>3.5308796851853883E-3</v>
       </c>
       <c r="I9" s="35"/>
       <c r="J9" s="9"/>
@@ -2118,7 +2127,7 @@
       </c>
       <c r="H10" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F10,G10,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>3.6720679235846061E-3</v>
+        <v>3.6425519753234491E-3</v>
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="9"/>
@@ -2147,7 +2156,7 @@
       </c>
       <c r="H11" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F11,G11,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>3.8093113885088316E-3</v>
+        <v>3.7687566566928865E-3</v>
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="9"/>
@@ -2177,7 +2186,7 @@
       </c>
       <c r="H12" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F12,G12,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>3.9718125385344947E-3</v>
+        <v>3.9290706705523183E-3</v>
       </c>
       <c r="I12" s="35"/>
       <c r="J12" s="9"/>
@@ -2203,7 +2212,7 @@
       </c>
       <c r="H13" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F13,G13,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>4.200854433870113E-3</v>
+        <v>4.1647518340596724E-3</v>
       </c>
       <c r="I13" s="35"/>
       <c r="J13" s="9"/>
@@ -2230,7 +2239,7 @@
       </c>
       <c r="H14" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F14,G14,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>4.4698920993876037E-3</v>
+        <v>4.4252898395236162E-3</v>
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="9"/>
@@ -2250,7 +2259,7 @@
       </c>
       <c r="H15" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F15,G15,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>4.7111776397717629E-3</v>
+        <v>4.6992714969716068E-3</v>
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="9"/>
@@ -2277,7 +2286,7 @@
       </c>
       <c r="H16" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F16,G16,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>5.0172497265486291E-3</v>
+        <v>5.0282659311322482E-3</v>
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="9"/>
@@ -2303,7 +2312,7 @@
       </c>
       <c r="H17" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F17,G17,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>5.3247402363151303E-3</v>
+        <v>5.3229136138026635E-3</v>
       </c>
       <c r="I17" s="35"/>
       <c r="J17" s="9"/>
@@ -2329,7 +2338,7 @@
       </c>
       <c r="H18" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F18,G18,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>5.6131698821027766E-3</v>
+        <v>5.5924836134887568E-3</v>
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="9"/>
@@ -2353,7 +2362,7 @@
       </c>
       <c r="H19" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F19,G19,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>5.9420082207351866E-3</v>
+        <v>5.9402560386391592E-3</v>
       </c>
       <c r="I19" s="35"/>
       <c r="J19" s="9"/>
@@ -2373,7 +2382,7 @@
       </c>
       <c r="H20" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F20,G20,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>6.9404976041646327E-3</v>
+        <v>6.8997609630988095E-3</v>
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="9"/>
@@ -2393,7 +2402,7 @@
       </c>
       <c r="H21" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F21,G21,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>7.9855958411430093E-3</v>
+        <v>7.9271880989670186E-3</v>
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="9"/>
@@ -2413,7 +2422,7 @@
       </c>
       <c r="H22" s="32">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F22,G22,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>9.8858553987349294E-3</v>
+        <v>9.8989226892360217E-3</v>
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="9"/>
@@ -2522,14 +2531,14 @@
         <v>2</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F2" s="22">
-        <f>EvaluationDate</f>
+        <f t="array" ref="F2:F4">EvaluationDate</f>
         <v>42145</v>
       </c>
       <c r="G2" s="25">
-        <f>_xll.qlCalendarAdvance(JoinCalendar,F2,"1D","f",FALSE)</f>
+        <f>_xll.qlCalendarAdvance(JoinCalendar,F2,E2,"f",FALSE)</f>
         <v>42146</v>
       </c>
       <c r="H2" s="31">
@@ -2552,19 +2561,18 @@
         <v>2</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="F3" s="23">
-        <f>G2</f>
-        <v>42146</v>
+        <v>42145</v>
       </c>
       <c r="G3" s="26">
-        <f>_xll.qlCalendarAdvance(JoinCalendar,F3,"1D","f",FALSE)</f>
+        <f>_xll.qlCalendarAdvance(JoinCalendar,F3,E3,"f",FALSE)</f>
         <v>42150</v>
       </c>
       <c r="H3" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F3,G3,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-1.5000000000098268E-3</v>
+        <v>-1.5000000000018332E-3</v>
       </c>
       <c r="I3" s="35"/>
       <c r="J3" s="9"/>
@@ -2582,19 +2590,18 @@
         <v>2</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F4" s="24">
-        <f>G3</f>
-        <v>42150</v>
+        <v>42145</v>
       </c>
       <c r="G4" s="21">
-        <f>_xll.qlCalendarAdvance(JoinCalendar,F4,"1D","f",FALSE)</f>
+        <f>_xll.qlCalendarAdvance(JoinCalendar,F4,E4,"f",FALSE)</f>
         <v>42151</v>
       </c>
       <c r="H4" s="32">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F4,G4,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-1.5000000205134256E-3</v>
+        <v>-1.500000008562985E-3</v>
       </c>
       <c r="I4" s="35"/>
       <c r="J4" s="9"/>
@@ -2623,9 +2630,9 @@
         <f>_xll.qlCalendarAdvance(JoinCalendar,F5,IF(E5="SN","1D",E5),"f",FALSE)</f>
         <v>42157</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="33" t="e">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F5,G5,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-2.9995263859516896E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I5" s="35"/>
       <c r="J5" s="9"/>
@@ -2652,9 +2659,9 @@
         <f>_xll.qlCalendarAdvance(JoinCalendar,F6,IF(E6="SN","1D",E6),"f",FALSE)</f>
         <v>42164</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="33" t="e">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F6,G6,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.1379380192492995E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I6" s="35"/>
       <c r="J6" s="9"/>
@@ -2681,9 +2688,9 @@
         <f>_xll.qlCalendarAdvance(JoinCalendar,F7,IF(E7="SN","1D",E7),"f",FALSE)</f>
         <v>42171</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="33" t="e">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F7,G7,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.18469773712796E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="9"/>
@@ -2711,9 +2718,9 @@
         <f>_xll.qlCalendarAdvance(JoinCalendar,F8,IF(E8="SN","1D",E8),"f",FALSE)</f>
         <v>42181</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="33" t="e">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F8,G8,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.2314354655161464E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="9"/>
@@ -2740,9 +2747,9 @@
         <f>_xll.qlCalendarAdvance(JoinCalendar,F9,IF(E9="SN","1D",E9),"f",FALSE)</f>
         <v>42212</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="33" t="e">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F9,G9,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.3665654220334821E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I9" s="35"/>
       <c r="J9" s="9"/>
@@ -2769,9 +2776,9 @@
         <f>_xll.qlCalendarAdvance(JoinCalendar,F10,IF(E10="SN","1D",E10),"f",FALSE)</f>
         <v>42242</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="33" t="e">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F10,G10,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.4431611775425476E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="9"/>
@@ -2798,9 +2805,9 @@
         <f>_xll.qlCalendarAdvance(JoinCalendar,F11,IF(E11="SN","1D",E11),"f",FALSE)</f>
         <v>42275</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="33" t="e">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F11,G11,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.4897230987236938E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="9"/>
@@ -2828,9 +2835,9 @@
         <f>_xll.qlCalendarAdvance(JoinCalendar,F12,IF(E12="SN","1D",E12),"f",FALSE)</f>
         <v>42303</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="33" t="e">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F12,G12,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.5211030060497582E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I12" s="35"/>
       <c r="J12" s="9"/>
@@ -2854,9 +2861,9 @@
         <f>_xll.qlCalendarAdvance(JoinCalendar,F13,IF(E13="SN","1D",E13),"f",FALSE)</f>
         <v>42335</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="33" t="e">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F13,G13,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.5863250395944705E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I13" s="35"/>
       <c r="J13" s="9"/>
@@ -2881,9 +2888,9 @@
         <f>_xll.qlCalendarAdvance(JoinCalendar,F14,IF(E14="SN","1D",E14),"f",FALSE)</f>
         <v>42366</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="33" t="e">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F14,G14,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.6933596715501191E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="9"/>
@@ -2901,9 +2908,9 @@
         <f>_xll.qlCalendarAdvance(JoinCalendar,F15,IF(E15="SN","1D",E15),"f",FALSE)</f>
         <v>42395</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="33" t="e">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F15,G15,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.7157132447645457E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="9"/>
@@ -2928,9 +2935,9 @@
         <f>_xll.qlCalendarAdvance(JoinCalendar,F16,IF(E16="SN","1D",E16),"f",FALSE)</f>
         <v>42426</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="33" t="e">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F16,G16,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.7968702494483655E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="9"/>
@@ -2954,9 +2961,9 @@
         <f>_xll.qlCalendarAdvance(JoinCalendar,F17,IF(E17="SN","1D",E17),"f",FALSE)</f>
         <v>42458</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="33" t="e">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F17,G17,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.8843894661376678E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I17" s="35"/>
       <c r="J17" s="9"/>
@@ -2980,9 +2987,9 @@
         <f>_xll.qlCalendarAdvance(JoinCalendar,F18,IF(E18="SN","1D",E18),"f",FALSE)</f>
         <v>42486</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="33" t="e">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F18,G18,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.9619009539977003E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="9"/>
@@ -3004,9 +3011,9 @@
         <f>_xll.qlCalendarAdvance(JoinCalendar,F19,IF(E19="SN","1D",E19),"f",FALSE)</f>
         <v>42516</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="33" t="e">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F19,G19,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-4.0327680256265642E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I19" s="35"/>
       <c r="J19" s="9"/>
@@ -3024,9 +3031,9 @@
         <f>_xll.qlCalendarAdvance(JoinCalendar,F20,IF(E20="SN","1D",E20),"f",FALSE)</f>
         <v>42608</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="33" t="e">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F20,G20,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-4.22575050120779E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="9"/>
@@ -3044,9 +3051,9 @@
         <f>_xll.qlCalendarAdvance(JoinCalendar,F21,IF(E21="SN","1D",E21),"f",FALSE)</f>
         <v>42702</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="33" t="e">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F21,G21,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-4.3701023742960107E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="9"/>
@@ -3064,9 +3071,9 @@
         <f>_xll.qlCalendarAdvance(JoinCalendar,F22,IF(E22="SN","1D",E22),"f",FALSE)</f>
         <v>42881</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="32" t="e">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F22,G22,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-4.3484886212531238E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="9"/>
@@ -3175,14 +3182,14 @@
         <v>2</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F2" s="22">
-        <f>EvaluationDate</f>
+        <f t="array" ref="F2:F4">EvaluationDate</f>
         <v>42145</v>
       </c>
       <c r="G2" s="25">
-        <f>_xll.qlCalendarAdvance(JoinCalendar,F2,"1D","f",FALSE)</f>
+        <f>_xll.qlCalendarAdvance(JoinCalendar,F2,E2,"f",FALSE)</f>
         <v>42146</v>
       </c>
       <c r="H2" s="31">
@@ -3205,14 +3212,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="F3" s="23">
-        <f>G2</f>
-        <v>42146</v>
+        <v>42145</v>
       </c>
       <c r="G3" s="26">
-        <f>_xll.qlCalendarAdvance(JoinCalendar,F3,"1D","f",FALSE)</f>
+        <f>_xll.qlCalendarAdvance(JoinCalendar,F3,E3,"f",FALSE)</f>
         <v>42150</v>
       </c>
       <c r="H3" s="33">
@@ -3235,19 +3241,18 @@
         <v>2</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F4" s="24">
-        <f>G3</f>
-        <v>42150</v>
+        <v>42145</v>
       </c>
       <c r="G4" s="21">
-        <f>_xll.qlCalendarAdvance(JoinCalendar,F4,"1D","f",FALSE)</f>
+        <f>_xll.qlCalendarAdvance(JoinCalendar,F4,E4,"f",FALSE)</f>
         <v>42151</v>
       </c>
       <c r="H4" s="32">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F4,G4,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>5.2000000000296254E-3</v>
+        <v>5.2000000000026105E-3</v>
       </c>
       <c r="I4" s="35"/>
       <c r="J4" s="9"/>
@@ -3278,7 +3283,7 @@
       </c>
       <c r="H5" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F5,G5,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>6.2410741685736681E-3</v>
+        <v>6.2331691192296645E-3</v>
       </c>
       <c r="I5" s="35"/>
       <c r="J5" s="9"/>
@@ -3307,7 +3312,7 @@
       </c>
       <c r="H6" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F6,G6,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>6.2778395056663407E-3</v>
+        <v>6.3013909650691926E-3</v>
       </c>
       <c r="I6" s="35"/>
       <c r="J6" s="9"/>
@@ -3336,7 +3341,7 @@
       </c>
       <c r="H7" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F7,G7,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>6.3080044454951901E-3</v>
+        <v>6.3180993215697766E-3</v>
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="9"/>
@@ -3366,7 +3371,7 @@
       </c>
       <c r="H8" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F8,G8,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>6.2908339864723335E-3</v>
+        <v>6.2726259911895276E-3</v>
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="9"/>
@@ -3395,7 +3400,7 @@
       </c>
       <c r="H9" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F9,G9,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>6.3402566350231624E-3</v>
+        <v>6.3274762645676979E-3</v>
       </c>
       <c r="I9" s="35"/>
       <c r="J9" s="9"/>
@@ -3424,7 +3429,7 @@
       </c>
       <c r="H10" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F10,G10,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>6.3793189878333491E-3</v>
+        <v>6.408027258901325E-3</v>
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="9"/>
@@ -3453,7 +3458,7 @@
       </c>
       <c r="H11" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F11,G11,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>6.4619916513522753E-3</v>
+        <v>6.4461052862862817E-3</v>
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="9"/>
@@ -3483,7 +3488,7 @@
       </c>
       <c r="H12" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F12,G12,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>6.5543664720043139E-3</v>
+        <v>6.5416015896083059E-3</v>
       </c>
       <c r="I12" s="35"/>
       <c r="J12" s="9"/>
@@ -3509,7 +3514,7 @@
       </c>
       <c r="H13" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F13,G13,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>6.6517819292660971E-3</v>
+        <v>6.6995552058686896E-3</v>
       </c>
       <c r="I13" s="35"/>
       <c r="J13" s="9"/>
@@ -3536,7 +3541,7 @@
       </c>
       <c r="H14" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F14,G14,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>6.8340549804234568E-3</v>
+        <v>6.8151678699600116E-3</v>
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="9"/>
@@ -3556,7 +3561,7 @@
       </c>
       <c r="H15" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F15,G15,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>6.9884365564534482E-3</v>
+        <v>7.0031942849357329E-3</v>
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="9"/>
@@ -3583,7 +3588,7 @@
       </c>
       <c r="H16" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F16,G16,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>7.1243644752181619E-3</v>
+        <v>7.1898741163684519E-3</v>
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="9"/>
@@ -3609,7 +3614,7 @@
       </c>
       <c r="H17" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F17,G17,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>7.297918670070706E-3</v>
+        <v>7.4059840923412206E-3</v>
       </c>
       <c r="I17" s="35"/>
       <c r="J17" s="9"/>
@@ -3635,7 +3640,7 @@
       </c>
       <c r="H18" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F18,G18,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>7.4720159576442584E-3</v>
+        <v>7.5585436985350588E-3</v>
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="9"/>
@@ -3659,7 +3664,7 @@
       </c>
       <c r="H19" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F19,G19,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>7.6879378006930402E-3</v>
+        <v>7.8024310759749445E-3</v>
       </c>
       <c r="I19" s="35"/>
       <c r="J19" s="9"/>
@@ -3679,7 +3684,7 @@
       </c>
       <c r="H20" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F20,G20,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>8.3273147282877293E-3</v>
+        <v>8.4862703786293906E-3</v>
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="9"/>
@@ -3699,7 +3704,7 @@
       </c>
       <c r="H21" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F21,G21,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>9.0447472577451209E-3</v>
+        <v>9.2315335128188517E-3</v>
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="9"/>
@@ -3719,7 +3724,7 @@
       </c>
       <c r="H22" s="32">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F22,G22,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>1.0297447712137881E-2</v>
+        <v>1.0641756783834576E-2</v>
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="9"/>
@@ -3828,19 +3833,19 @@
         <v>2</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F2" s="22">
-        <f>EvaluationDate</f>
+        <f t="array" ref="F2:F4">EvaluationDate</f>
         <v>42145</v>
       </c>
       <c r="G2" s="25">
-        <f>_xll.qlCalendarAdvance(JoinCalendar,F2,"1D","f",FALSE)</f>
+        <f>_xll.qlCalendarAdvance(JoinCalendar,F2,E2,"f",FALSE)</f>
         <v>42146</v>
       </c>
       <c r="H2" s="31">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F2,G2,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>0</v>
+        <v>-7.7500000000307878E-3</v>
       </c>
       <c r="I2" s="35"/>
       <c r="J2" s="9"/>
@@ -3858,19 +3863,18 @@
         <v>2</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="F3" s="23">
-        <f>G2</f>
-        <v>42146</v>
+        <v>42145</v>
       </c>
       <c r="G3" s="26">
-        <f>_xll.qlCalendarAdvance(JoinCalendar,F3,"1D","f",FALSE)</f>
+        <f>_xll.qlCalendarAdvance(JoinCalendar,F3,E3,"f",FALSE)</f>
         <v>42150</v>
       </c>
       <c r="H3" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F3,G3,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-7.749999999998175E-3</v>
+        <v>-7.7499999999988134E-3</v>
       </c>
       <c r="I3" s="35"/>
       <c r="J3" s="9"/>
@@ -3888,19 +3892,18 @@
         <v>2</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F4" s="24">
-        <f>G3</f>
-        <v>42150</v>
+        <v>42145</v>
       </c>
       <c r="G4" s="21">
-        <f>_xll.qlCalendarAdvance(JoinCalendar,F4,"1D","f",FALSE)</f>
+        <f>_xll.qlCalendarAdvance(JoinCalendar,F4,E4,"f",FALSE)</f>
         <v>42151</v>
       </c>
       <c r="H4" s="32">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F4,G4,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-7.7500000178992723E-3</v>
+        <v>-8.2500000113050476E-3</v>
       </c>
       <c r="I4" s="35"/>
       <c r="J4" s="9"/>
@@ -3931,7 +3934,7 @@
       </c>
       <c r="H5" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F5,G5,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-8.7655487157938562E-3</v>
+        <v>-8.527089715143963E-3</v>
       </c>
       <c r="I5" s="35"/>
       <c r="J5" s="9"/>
@@ -3960,7 +3963,7 @@
       </c>
       <c r="H6" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F6,G6,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-8.5681983135804263E-3</v>
+        <v>-8.3812780367439488E-3</v>
       </c>
       <c r="I6" s="35"/>
       <c r="J6" s="9"/>
@@ -3989,7 +3992,7 @@
       </c>
       <c r="H7" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F7,G7,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-8.2882030377520073E-3</v>
+        <v>-8.1468653522006763E-3</v>
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="9"/>
@@ -4019,7 +4022,7 @@
       </c>
       <c r="H8" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F8,G8,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-8.591360883935386E-3</v>
+        <v>-8.318789484404723E-3</v>
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="9"/>
@@ -4048,7 +4051,7 @@
       </c>
       <c r="H9" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F9,G9,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-9.9789199390685635E-3</v>
+        <v>-9.8109991950964016E-3</v>
       </c>
       <c r="I9" s="35"/>
       <c r="J9" s="9"/>
@@ -4077,7 +4080,7 @@
       </c>
       <c r="H10" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F10,G10,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-1.0472980269357503E-2</v>
+        <v>-1.0348606780872143E-2</v>
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="9"/>
@@ -4106,7 +4109,7 @@
       </c>
       <c r="H11" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F11,G11,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-1.0676582039251885E-2</v>
+        <v>-1.0568293407172967E-2</v>
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="9"/>
@@ -4136,7 +4139,7 @@
       </c>
       <c r="H12" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F12,G12,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-1.0891233729778826E-2</v>
+        <v>-1.0802945002469562E-2</v>
       </c>
       <c r="I12" s="35"/>
       <c r="J12" s="9"/>
@@ -4162,7 +4165,7 @@
       </c>
       <c r="H13" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F13,G13,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-1.1033876668357017E-2</v>
+        <v>-1.0915575460664037E-2</v>
       </c>
       <c r="I13" s="35"/>
       <c r="J13" s="9"/>
@@ -4189,7 +4192,7 @@
       </c>
       <c r="H14" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F14,G14,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-1.0959300239885096E-2</v>
+        <v>-1.0974583590336503E-2</v>
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="9"/>
@@ -4209,7 +4212,7 @@
       </c>
       <c r="H15" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F15,G15,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-1.1045736594466959E-2</v>
+        <v>-1.0939335596734262E-2</v>
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="9"/>
@@ -4236,7 +4239,7 @@
       </c>
       <c r="H16" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F16,G16,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-1.0897903872330491E-2</v>
+        <v>-1.0892222568627322E-2</v>
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="9"/>
@@ -4248,7 +4251,7 @@
         <v>56</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E17" s="49" t="s">
         <v>38</v>
@@ -4262,7 +4265,7 @@
       </c>
       <c r="H17" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F17,G17,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-1.0959597981389674E-2</v>
+        <v>-1.0888782483318395E-2</v>
       </c>
       <c r="I17" s="35"/>
       <c r="J17" s="9"/>
@@ -4288,7 +4291,7 @@
       </c>
       <c r="H18" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F18,G18,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-1.0867249662670542E-2</v>
+        <v>-1.0949582253848884E-2</v>
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="9"/>
@@ -4312,7 +4315,7 @@
       </c>
       <c r="H19" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F19,G19,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-1.0760480158329398E-2</v>
+        <v>-1.0760133722616992E-2</v>
       </c>
       <c r="I19" s="35"/>
       <c r="J19" s="9"/>
@@ -4332,7 +4335,7 @@
       </c>
       <c r="H20" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F20,G20,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-1.0552401761534188E-2</v>
+        <v>-1.0668008928820909E-2</v>
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="9"/>
@@ -4352,7 +4355,7 @@
       </c>
       <c r="H21" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F21,G21,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-1.0226550164371328E-2</v>
+        <v>-1.0300659871625453E-2</v>
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="9"/>
@@ -4372,7 +4375,7 @@
       </c>
       <c r="H22" s="32">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F22,G22,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-9.6799306897524529E-3</v>
+        <v>-1.0021861176509599E-2</v>
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="9"/>
@@ -4481,19 +4484,19 @@
         <v>2</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F2" s="22">
-        <f>EvaluationDate</f>
+        <f t="array" ref="F2:F4">EvaluationDate</f>
         <v>42145</v>
       </c>
       <c r="G2" s="25">
-        <f>_xll.qlCalendarAdvance(JoinCalendar,F2,"1D","f",FALSE)</f>
+        <f>_xll.qlCalendarAdvance(JoinCalendar,F2,E2,"f",FALSE)</f>
         <v>42146</v>
       </c>
       <c r="H2" s="31">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F2,G2,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>2.0000000000131024E-4</v>
+        <v>4.9999999996330757E-4</v>
       </c>
       <c r="I2" s="35"/>
       <c r="J2" s="9"/>
@@ -4511,19 +4514,18 @@
         <v>2</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="F3" s="23">
-        <f>G2</f>
-        <v>42146</v>
+        <v>42145</v>
       </c>
       <c r="G3" s="26">
-        <f>_xll.qlCalendarAdvance(JoinCalendar,F3,"1D","f",FALSE)</f>
+        <f>_xll.qlCalendarAdvance(JoinCalendar,F3,E3,"f",FALSE)</f>
         <v>42150</v>
       </c>
       <c r="H3" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F3,G3,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>1.2499995746484416E-4</v>
+        <v>-9.5123908749883412E-12</v>
       </c>
       <c r="I3" s="35"/>
       <c r="J3" s="9"/>
@@ -4541,19 +4543,18 @@
         <v>2</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F4" s="24">
-        <f>G3</f>
-        <v>42150</v>
+        <v>42145</v>
       </c>
       <c r="G4" s="21">
-        <f>_xll.qlCalendarAdvance(JoinCalendar,F4,"1D","f",FALSE)</f>
+        <f>_xll.qlCalendarAdvance(JoinCalendar,F4,E4,"f",FALSE)</f>
         <v>42151</v>
       </c>
       <c r="H4" s="32">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F4,G4,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>2.8747822448149662E-3</v>
+        <v>4.8034376161965042E-4</v>
       </c>
       <c r="I4" s="35"/>
       <c r="J4" s="9"/>
@@ -4584,7 +4585,7 @@
       </c>
       <c r="H5" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F5,G5,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>3.3121442963844417E-3</v>
+        <v>3.2820092913902039E-3</v>
       </c>
       <c r="I5" s="35"/>
       <c r="J5" s="9"/>
@@ -4613,7 +4614,7 @@
       </c>
       <c r="H6" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F6,G6,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>3.3582448568734791E-3</v>
+        <v>3.3720830809601055E-3</v>
       </c>
       <c r="I6" s="35"/>
       <c r="J6" s="9"/>
@@ -4642,7 +4643,7 @@
       </c>
       <c r="H7" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F7,G7,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>3.4013659452839357E-3</v>
+        <v>3.4235752705884842E-3</v>
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="9"/>
@@ -4672,7 +4673,7 @@
       </c>
       <c r="H8" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F8,G8,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>3.4209061447035014E-3</v>
+        <v>3.414235150848119E-3</v>
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="9"/>
@@ -4701,7 +4702,7 @@
       </c>
       <c r="H9" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F9,G9,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>3.4996865469014058E-3</v>
+        <v>3.4883289827619141E-3</v>
       </c>
       <c r="I9" s="35"/>
       <c r="J9" s="9"/>
@@ -4730,7 +4731,7 @@
       </c>
       <c r="H10" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F10,G10,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>3.6288004690662617E-3</v>
+        <v>3.5994682671997257E-3</v>
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="9"/>
@@ -4759,7 +4760,7 @@
       </c>
       <c r="H11" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F11,G11,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>3.7651402188307514E-3</v>
+        <v>3.7245632489148052E-3</v>
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="9"/>
@@ -4789,7 +4790,7 @@
       </c>
       <c r="H12" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F12,G12,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>3.9214914964326364E-3</v>
+        <v>3.8789327806236264E-3</v>
       </c>
       <c r="I12" s="35"/>
       <c r="J12" s="9"/>
@@ -4815,7 +4816,7 @@
       </c>
       <c r="H13" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F13,G13,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>4.1482653006610906E-3</v>
+        <v>4.1126500702806526E-3</v>
       </c>
       <c r="I13" s="35"/>
       <c r="J13" s="9"/>
@@ -4842,7 +4843,7 @@
       </c>
       <c r="H14" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F14,G14,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>4.4150962113986836E-3</v>
+        <v>4.3706198891098804E-3</v>
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="9"/>
@@ -4862,7 +4863,7 @@
       </c>
       <c r="H15" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F15,G15,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>4.646527915775335E-3</v>
+        <v>4.6348437435395568E-3</v>
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="9"/>
@@ -4889,7 +4890,7 @@
       </c>
       <c r="H16" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F16,G16,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>4.9496050554834791E-3</v>
+        <v>4.9612313271228123E-3</v>
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="9"/>
@@ -4915,7 +4916,7 @@
       </c>
       <c r="H17" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F17,G17,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>5.244892917124923E-3</v>
+        <v>5.244210290904357E-3</v>
       </c>
       <c r="I17" s="35"/>
       <c r="J17" s="9"/>
@@ -4941,7 +4942,7 @@
       </c>
       <c r="H18" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F18,G18,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>5.5393359240923923E-3</v>
+        <v>5.5187217518137023E-3</v>
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="9"/>
@@ -4965,7 +4966,7 @@
       </c>
       <c r="H19" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F19,G19,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>5.8645892755552886E-3</v>
+        <v>5.8631654818172979E-3</v>
       </c>
       <c r="I19" s="35"/>
       <c r="J19" s="9"/>
@@ -4985,7 +4986,7 @@
       </c>
       <c r="H20" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F20,G20,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>6.852932336644876E-3</v>
+        <v>6.8119819727087338E-3</v>
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="9"/>
@@ -5005,7 +5006,7 @@
       </c>
       <c r="H21" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F21,G21,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>7.8855972830466324E-3</v>
+        <v>7.8276644083364252E-3</v>
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="9"/>
@@ -5025,7 +5026,7 @@
       </c>
       <c r="H22" s="32">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F22,G22,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>9.7617949300685802E-3</v>
+        <v>9.7753470346013289E-3</v>
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="9"/>
@@ -5134,19 +5135,19 @@
         <v>2</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F2" s="22">
-        <f>EvaluationDate</f>
+        <f t="array" ref="F2:F4">EvaluationDate</f>
         <v>42145</v>
       </c>
       <c r="G2" s="25">
-        <f>_xll.qlCalendarAdvance(JoinCalendar,F2,"1D","f",FALSE)</f>
+        <f>_xll.qlCalendarAdvance(JoinCalendar,F2,E2,"f",FALSE)</f>
         <v>42146</v>
       </c>
       <c r="H2" s="31">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F2,G2,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>1.9749999999989498E-2</v>
+        <v>2.1700000000022257E-2</v>
       </c>
       <c r="I2" s="35"/>
       <c r="J2" s="9"/>
@@ -5164,19 +5165,18 @@
         <v>2</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="F3" s="23">
-        <f>G2</f>
-        <v>42146</v>
+        <v>42145</v>
       </c>
       <c r="G3" s="26">
-        <f>_xll.qlCalendarAdvance(JoinCalendar,F3,"1D","f",FALSE)</f>
+        <f>_xll.qlCalendarAdvance(JoinCalendar,F3,E3,"f",FALSE)</f>
         <v>42150</v>
       </c>
       <c r="H3" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F3,G3,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>2.1500000003857878E-2</v>
+        <v>2.170000000000627E-2</v>
       </c>
       <c r="I3" s="35"/>
       <c r="J3" s="9"/>
@@ -5194,19 +5194,18 @@
         <v>2</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F4" s="24">
-        <f>G3</f>
-        <v>42150</v>
+        <v>42145</v>
       </c>
       <c r="G4" s="21">
-        <f>_xll.qlCalendarAdvance(JoinCalendar,F4,"1D","f",FALSE)</f>
+        <f>_xll.qlCalendarAdvance(JoinCalendar,F4,E4,"f",FALSE)</f>
         <v>42151</v>
       </c>
       <c r="H4" s="32">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F4,G4,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>2.0499999996737017E-2</v>
+        <v>2.0749999999996049E-2</v>
       </c>
       <c r="I4" s="35"/>
       <c r="J4" s="9"/>
@@ -5237,7 +5236,7 @@
       </c>
       <c r="H5" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F5,G5,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>2.2758583240470389E-2</v>
+        <v>2.316520194856889E-2</v>
       </c>
       <c r="I5" s="35"/>
       <c r="J5" s="9"/>
@@ -5266,7 +5265,7 @@
       </c>
       <c r="H6" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F6,G6,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>2.2762481500333869E-2</v>
+        <v>2.3037264942242786E-2</v>
       </c>
       <c r="I6" s="35"/>
       <c r="J6" s="9"/>
@@ -5295,7 +5294,7 @@
       </c>
       <c r="H7" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F7,G7,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>2.2895902367286527E-2</v>
+        <v>2.3108720225201954E-2</v>
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="9"/>
@@ -5325,7 +5324,7 @@
       </c>
       <c r="H8" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F8,G8,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>2.2847970219120634E-2</v>
+        <v>2.3146145655488226E-2</v>
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="9"/>
@@ -5354,7 +5353,7 @@
       </c>
       <c r="H9" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F9,G9,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>2.3067473163038556E-2</v>
+        <v>2.3177246141809976E-2</v>
       </c>
       <c r="I9" s="35"/>
       <c r="J9" s="9"/>
@@ -5383,7 +5382,7 @@
       </c>
       <c r="H10" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F10,G10,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>2.3235085794960607E-2</v>
+        <v>2.3221604341188144E-2</v>
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="9"/>
@@ -5412,7 +5411,7 @@
       </c>
       <c r="H11" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F11,G11,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>2.3191492004646437E-2</v>
+        <v>2.3248857354831075E-2</v>
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="9"/>
@@ -5442,7 +5441,7 @@
       </c>
       <c r="H12" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F12,G12,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>2.3318887194267481E-2</v>
+        <v>2.3312554846415649E-2</v>
       </c>
       <c r="I12" s="35"/>
       <c r="J12" s="9"/>
@@ -5468,7 +5467,7 @@
       </c>
       <c r="H13" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F13,G13,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>2.3333850800358574E-2</v>
+        <v>2.3348525352951326E-2</v>
       </c>
       <c r="I13" s="35"/>
       <c r="J13" s="9"/>
@@ -5495,7 +5494,7 @@
       </c>
       <c r="H14" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F14,G14,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>2.3427315057927656E-2</v>
+        <v>2.3347027348513381E-2</v>
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="9"/>
@@ -5515,7 +5514,7 @@
       </c>
       <c r="H15" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F15,G15,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>2.3453286419637655E-2</v>
+        <v>2.3482447917577969E-2</v>
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="9"/>
@@ -5542,7 +5541,7 @@
       </c>
       <c r="H16" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F16,G16,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>2.3529345528365154E-2</v>
+        <v>2.3479853612029821E-2</v>
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="9"/>
@@ -5568,7 +5567,7 @@
       </c>
       <c r="H17" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F17,G17,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>2.3609586770453515E-2</v>
+        <v>2.3544806287259978E-2</v>
       </c>
       <c r="I17" s="35"/>
       <c r="J17" s="9"/>
@@ -5594,7 +5593,7 @@
       </c>
       <c r="H18" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F18,G18,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>2.3691138425782632E-2</v>
+        <v>2.3614195049127065E-2</v>
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="9"/>
@@ -5618,7 +5617,7 @@
       </c>
       <c r="H19" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F19,G19,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>2.3822518968613742E-2</v>
+        <v>2.3835439287395378E-2</v>
       </c>
       <c r="I19" s="35"/>
       <c r="J19" s="9"/>
@@ -5638,7 +5637,7 @@
       </c>
       <c r="H20" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F20,G20,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>2.4102191823627332E-2</v>
+        <v>2.3959769655400913E-2</v>
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="9"/>
@@ -5658,7 +5657,7 @@
       </c>
       <c r="H21" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F21,G21,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>2.4612386319445456E-2</v>
+        <v>2.4549364419621907E-2</v>
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="9"/>
@@ -5678,7 +5677,7 @@
       </c>
       <c r="H22" s="32">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F22,G22,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>2.5143422916652173E-2</v>
+        <v>2.5152227752220889E-2</v>
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="9"/>
@@ -5745,7 +5744,7 @@
   <dimension ref="B1:L27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5787,14 +5786,14 @@
         <v>2</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F2" s="22">
-        <f>EvaluationDate</f>
+        <f t="array" ref="F2:F4">EvaluationDate</f>
         <v>42145</v>
       </c>
       <c r="G2" s="25">
-        <f>_xll.qlCalendarAdvance(JoinCalendar,F2,"1D","f",FALSE)</f>
+        <f>_xll.qlCalendarAdvance(JoinCalendar,F2,E2,"f",FALSE)</f>
         <v>42146</v>
       </c>
       <c r="H2" s="31">
@@ -5817,19 +5816,18 @@
         <v>2</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="F3" s="23">
-        <f>G2</f>
-        <v>42146</v>
+        <v>42145</v>
       </c>
       <c r="G3" s="26">
-        <f>_xll.qlCalendarAdvance(JoinCalendar,F3,"1D","f",FALSE)</f>
+        <f>_xll.qlCalendarAdvance(JoinCalendar,F3,E3,"f",FALSE)</f>
         <v>42150</v>
       </c>
       <c r="H3" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F3,G3,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>7.6041666667164831E-4</v>
+        <v>7.6041666665949137E-4</v>
       </c>
       <c r="I3" s="35"/>
       <c r="J3" s="9"/>
@@ -5847,19 +5845,18 @@
         <v>2</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F4" s="24">
-        <f>G3</f>
-        <v>42150</v>
+        <v>42145</v>
       </c>
       <c r="G4" s="21">
-        <f>_xll.qlCalendarAdvance(JoinCalendar,F4,"1D","f",FALSE)</f>
+        <f>_xll.qlCalendarAdvance(JoinCalendar,F4,E4,"f",FALSE)</f>
         <v>42151</v>
       </c>
       <c r="H4" s="32">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F4,G4,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>2.6361111111283808E-3</v>
+        <v>2.6361111115336127E-3</v>
       </c>
       <c r="I4" s="35"/>
       <c r="J4" s="9"/>
@@ -5890,7 +5887,7 @@
       </c>
       <c r="H5" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F5,G5,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>4.0632711443206694E-3</v>
+        <v>4.3630892491797191E-3</v>
       </c>
       <c r="I5" s="35"/>
       <c r="J5" s="9"/>
@@ -5919,7 +5916,7 @@
       </c>
       <c r="H6" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F6,G6,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>4.1081207995440662E-3</v>
+        <v>4.287849711680264E-3</v>
       </c>
       <c r="I6" s="35"/>
       <c r="J6" s="9"/>
@@ -5948,7 +5945,7 @@
       </c>
       <c r="H7" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F7,G7,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>4.0559263026118146E-3</v>
+        <v>4.2019721150875541E-3</v>
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="9"/>
@@ -5978,7 +5975,7 @@
       </c>
       <c r="H8" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F8,G8,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>4.0310041408089534E-3</v>
+        <v>4.1743754911404895E-3</v>
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="9"/>
@@ -6007,7 +6004,7 @@
       </c>
       <c r="H9" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F9,G9,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>4.0105846262318964E-3</v>
+        <v>4.0357485643494244E-3</v>
       </c>
       <c r="I9" s="35"/>
       <c r="J9" s="9"/>
@@ -6036,7 +6033,7 @@
       </c>
       <c r="H10" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F10,G10,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>3.9919809502793275E-3</v>
+        <v>4.0004311005903638E-3</v>
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="9"/>
@@ -6065,7 +6062,7 @@
       </c>
       <c r="H11" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F11,G11,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>4.0356853101036231E-3</v>
+        <v>4.0504000972298804E-3</v>
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="9"/>
@@ -6095,7 +6092,7 @@
       </c>
       <c r="H12" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F12,G12,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>4.1348565110353886E-3</v>
+        <v>4.1685520735595264E-3</v>
       </c>
       <c r="I12" s="35"/>
       <c r="J12" s="9"/>
@@ -6121,7 +6118,7 @@
       </c>
       <c r="H13" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F13,G13,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>4.3229578707508218E-3</v>
+        <v>4.3628439474740679E-3</v>
       </c>
       <c r="I13" s="35"/>
       <c r="J13" s="9"/>
@@ -6148,7 +6145,7 @@
       </c>
       <c r="H14" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F14,G14,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>4.552448811928257E-3</v>
+        <v>4.6073835929437267E-3</v>
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="9"/>
@@ -6168,7 +6165,7 @@
       </c>
       <c r="H15" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F15,G15,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>4.7976840335114106E-3</v>
+        <v>4.8687572416779507E-3</v>
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="9"/>
@@ -6195,7 +6192,7 @@
       </c>
       <c r="H16" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F16,G16,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>5.0869337505284719E-3</v>
+        <v>5.1665887002367017E-3</v>
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="9"/>
@@ -6221,7 +6218,7 @@
       </c>
       <c r="H17" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F17,G17,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>5.4084088662738469E-3</v>
+        <v>5.4829848660049195E-3</v>
       </c>
       <c r="I17" s="35"/>
       <c r="J17" s="9"/>
@@ -6247,7 +6244,7 @@
       </c>
       <c r="H18" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F18,G18,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>5.6973605078219844E-3</v>
+        <v>5.7608650059740854E-3</v>
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="9"/>
@@ -6271,7 +6268,7 @@
       </c>
       <c r="H19" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F19,G19,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>6.0051246905221253E-3</v>
+        <v>6.0551079439219654E-3</v>
       </c>
       <c r="I19" s="35"/>
       <c r="J19" s="9"/>
@@ -6291,7 +6288,7 @@
       </c>
       <c r="H20" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F20,G20,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>6.9331921685149176E-3</v>
+        <v>6.9437493747554141E-3</v>
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="9"/>
@@ -6311,7 +6308,7 @@
       </c>
       <c r="H21" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F21,G21,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>7.9238404835907522E-3</v>
+        <v>7.9078154478795949E-3</v>
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="9"/>
@@ -6331,7 +6328,7 @@
       </c>
       <c r="H22" s="32">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F22,G22,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>9.7275223426413742E-3</v>
+        <v>9.8393356793850442E-3</v>
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="9"/>
@@ -6395,7 +6392,7 @@
   <dimension ref="B1:L27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6437,19 +6434,19 @@
         <v>2</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F2" s="22">
-        <f>EvaluationDate</f>
+        <f t="array" ref="F2:F4">EvaluationDate</f>
         <v>42145</v>
       </c>
       <c r="G2" s="25">
-        <f>_xll.qlCalendarAdvance(JoinCalendar,F2,"1D","f",FALSE)</f>
+        <f>_xll.qlCalendarAdvance(JoinCalendar,F2,E2,"f",FALSE)</f>
         <v>42146</v>
       </c>
       <c r="H2" s="31">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F2,G2,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.5999999999836163E-3</v>
+        <v>-2.9999999999796856E-3</v>
       </c>
       <c r="I2" s="35"/>
       <c r="J2" s="9"/>
@@ -6467,19 +6464,18 @@
         <v>2</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="F3" s="23">
-        <f>G2</f>
-        <v>42146</v>
+        <v>42145</v>
       </c>
       <c r="G3" s="26">
-        <f>_xll.qlCalendarAdvance(JoinCalendar,F3,"1D","f",FALSE)</f>
+        <f>_xll.qlCalendarAdvance(JoinCalendar,F3,E3,"f",FALSE)</f>
         <v>42150</v>
       </c>
       <c r="H3" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F3,G3,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.4999999999829612E-3</v>
+        <v>-3.2500000095376791E-3</v>
       </c>
       <c r="I3" s="35"/>
       <c r="J3" s="9"/>
@@ -6497,19 +6493,18 @@
         <v>2</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F4" s="24">
-        <f>G3</f>
-        <v>42150</v>
+        <v>42145</v>
       </c>
       <c r="G4" s="21">
-        <f>_xll.qlCalendarAdvance(JoinCalendar,F4,"1D","f",FALSE)</f>
+        <f>_xll.qlCalendarAdvance(JoinCalendar,F4,E4,"f",FALSE)</f>
         <v>42151</v>
       </c>
       <c r="H4" s="32">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F4,G4,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-2.2000000000144126E-3</v>
+        <v>-2.9999999999930083E-3</v>
       </c>
       <c r="I4" s="35"/>
       <c r="J4" s="9"/>
@@ -6540,7 +6535,7 @@
       </c>
       <c r="H5" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F5,G5,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-2.8587209120540485E-3</v>
+        <v>-2.936606594677395E-3</v>
       </c>
       <c r="I5" s="35"/>
       <c r="J5" s="9"/>
@@ -6569,7 +6564,7 @@
       </c>
       <c r="H6" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F6,G6,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-2.9599973830464676E-3</v>
+        <v>-2.8609265774814929E-3</v>
       </c>
       <c r="I6" s="35"/>
       <c r="J6" s="9"/>
@@ -6598,7 +6593,7 @@
       </c>
       <c r="H7" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F7,G7,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-2.8853442578448607E-3</v>
+        <v>-2.8405725992414993E-3</v>
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="9"/>
@@ -6628,7 +6623,7 @@
       </c>
       <c r="H8" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F8,G8,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.089365726254218E-3</v>
+        <v>-3.0668264747271065E-3</v>
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="9"/>
@@ -6657,7 +6652,7 @@
       </c>
       <c r="H9" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F9,G9,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.5717301409209047E-3</v>
+        <v>-3.5237148971592916E-3</v>
       </c>
       <c r="I9" s="35"/>
       <c r="J9" s="9"/>
@@ -6686,7 +6681,7 @@
       </c>
       <c r="H10" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F10,G10,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.8269406188307102E-3</v>
+        <v>-3.7311635647086917E-3</v>
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="9"/>
@@ -6715,7 +6710,7 @@
       </c>
       <c r="H11" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F11,G11,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.882115702137803E-3</v>
+        <v>-3.8236665854948274E-3</v>
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="9"/>
@@ -6745,7 +6740,7 @@
       </c>
       <c r="H12" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F12,G12,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.8232819029287665E-3</v>
+        <v>-3.7636749335976643E-3</v>
       </c>
       <c r="I12" s="35"/>
       <c r="J12" s="9"/>
@@ -6771,7 +6766,7 @@
       </c>
       <c r="H13" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F13,G13,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.8371531359418739E-3</v>
+        <v>-3.7359382893056054E-3</v>
       </c>
       <c r="I13" s="35"/>
       <c r="J13" s="9"/>
@@ -6798,7 +6793,7 @@
       </c>
       <c r="H14" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F14,G14,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.6661945667757862E-3</v>
+        <v>-3.5684525955711108E-3</v>
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="9"/>
@@ -6818,7 +6813,7 @@
       </c>
       <c r="H15" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F15,G15,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.6579115860121301E-3</v>
+        <v>-3.6032227260032143E-3</v>
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="9"/>
@@ -6845,7 +6840,7 @@
       </c>
       <c r="H16" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F16,G16,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.7117198371293823E-3</v>
+        <v>-3.4090645328076629E-3</v>
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="9"/>
@@ -6871,7 +6866,7 @@
       </c>
       <c r="H17" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F17,G17,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.5522335151852978E-3</v>
+        <v>-3.3850323537440333E-3</v>
       </c>
       <c r="I17" s="35"/>
       <c r="J17" s="9"/>
@@ -6897,7 +6892,7 @@
       </c>
       <c r="H18" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F18,G18,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.4976752335697764E-3</v>
+        <v>-3.3402874024033935E-3</v>
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="9"/>
@@ -6921,7 +6916,7 @@
       </c>
       <c r="H19" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F19,G19,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.420346715783687E-3</v>
+        <v>-3.1485234356177583E-3</v>
       </c>
       <c r="I19" s="35"/>
       <c r="J19" s="9"/>
@@ -6941,7 +6936,7 @@
       </c>
       <c r="H20" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F20,G20,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-3.0084605530435009E-3</v>
+        <v>-3.0236100744792599E-3</v>
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="9"/>
@@ -6961,7 +6956,7 @@
       </c>
       <c r="H21" s="33">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F21,G21,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-2.4598657271286259E-3</v>
+        <v>-2.5836726563481455E-3</v>
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="9"/>
@@ -6981,7 +6976,7 @@
       </c>
       <c r="H22" s="32">
         <f>_xll.qlYieldTSForwardRate(BasisCurve,F22,G22,DayCounter,Compounding,Frequency,,InterestRateTrigger)</f>
-        <v>-1.4719971030295999E-3</v>
+        <v>-1.4747391777857487E-3</v>
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="9"/>
